--- a/biology/Médecine/Louis_Ribadeau-Dumas/Louis_Ribadeau-Dumas.xlsx
+++ b/biology/Médecine/Louis_Ribadeau-Dumas/Louis_Ribadeau-Dumas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Achille, Théophile, Louis Ribadeau-Dumas, né le 30 janvier 1876, 10 quai de la Mégisserie à Paris et mort le 8 juin 1951 à Paris, est un pédiatre français.
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louis Ribadeau-Dumas est issu d'une famille noble installée à Paris. Il est le fils de Louis Dominique Achille Ribadeau-Dumas, avoué près de la cour d'appel de Paris, et de Louise Marguerite Eugénie Laporte. Si la révolution n'était pas arrivée il se serait appelé Ribadeau Du Mas.
 Les révolutionnaires de la seconde guerre mondiale étaient des nobles qui ont pardonné la révolution.
 Interne des hôpitaux en 1900 à l'hôpital Trousseau, il a pour professeur Brault, Béclère, Netter.  
-Il se marie avec Marthe Naquet-Radiguet, le 14 janvier 1905[1].
+Il se marie avec Marthe Naquet-Radiguet, le 14 janvier 1905.
 Albert Brault le fait entrer au laboratoire d'anatomie pathologique de la faculté de medecine, où il devient moniteur. Chef de laboratoire à Trousseau, médecin des hôpitaux en 1911.
-Pendant la première guerre mondiale, médecin aide-major d'un groupe du 2e régiment d'artillerie coloniale, il est fait prisonnier lors de la bataille de Rossignol, le 22 août 1914 [2]. Rapatrié en 1915, affecté à Paramé en 1915, médecin chef de secteur à Dijon en 1916, puis comme médecin chef d'un hôpital de campagne en 1918, il fait, avec Etienne Brissaud, d'importantes recherches sur la transfusion sanguine et l'immuno-transfusion.
+Pendant la première guerre mondiale, médecin aide-major d'un groupe du 2e régiment d'artillerie coloniale, il est fait prisonnier lors de la bataille de Rossignol, le 22 août 1914 . Rapatrié en 1915, affecté à Paramé en 1915, médecin chef de secteur à Dijon en 1916, puis comme médecin chef d'un hôpital de campagne en 1918, il fait, avec Etienne Brissaud, d'importantes recherches sur la transfusion sanguine et l'immuno-transfusion.
 En 1921, il est nommé médecin-chef de l'infirmerie de la maternité de Port-Royal, puis en 1926, du service de médecine infantile et maternelle de la Salpêtrière jusqu'en 1942 atteint par la limite d'âge. Il exerce ensuite à la clinique obstétricale Tarnier.
 </t>
         </is>
@@ -548,12 +562,12 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ictère et splénomégalie, Thèse. Paris, 1904[3].
-Les débuts de la tuberculose ganglio-pulmonaire, 1925.
-En collaboration
-Lemoine Georges, Rathery Francis, Sergent Émile, Ribadeau-Dumas Louis, Babonneix Léon, Traité de pathologie médicale et de thérapeutique appliquée. Tome XXVII Hygiène et Régimes, Paris, N. Maloine, 1921, 590 p.</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Ictère et splénomégalie, Thèse. Paris, 1904.
+Les débuts de la tuberculose ganglio-pulmonaire, 1925.</t>
         </is>
       </c>
     </row>
@@ -578,16 +592,88 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvres et publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>En collaboration</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Lemoine Georges, Rathery Francis, Sergent Émile, Ribadeau-Dumas Louis, Babonneix Léon, Traité de pathologie médicale et de thérapeutique appliquée. Tome XXVII Hygiène et Régimes, Paris, N. Maloine, 1921, 590 p.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Louis_Ribadeau-Dumas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Ribadeau-Dumas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Distinctions et reconnaissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve"> Chevalier de la Légion d'honneur en 1917,
- Officier de la Légion d'honneur en 1930[4].
- Croix de guerre 1914-1918 avec citation à l'ordre du service de santé.
-Sociétés savantes
-Élu à l'académie de Médecine en 1936[5].
+ Officier de la Légion d'honneur en 1930.
+ Croix de guerre 1914-1918 avec citation à l'ordre du service de santé.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Louis_Ribadeau-Dumas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Louis_Ribadeau-Dumas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions et reconnaissance</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sociétés savantes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Élu à l'académie de Médecine en 1936.
 </t>
         </is>
       </c>
